--- a/spreadsheet/macrofree/azurefiles_sg_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/azurefiles_sg_checklist.zh-Hant.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>配置存儲帳戶以實現冗餘。為了獲得最大的可用性和持久性，請使用區域冗餘存儲 （ZRS）、GRS 或 GZRS 配置您的帳戶。有限的 Azure 區域支援標準和高級文件共用的 ZRS。僅標準 SMB 帳戶支援 GRS 和 GZRS。高級SMB共用和NFS共用不支援 GRS 和 GZRS。Azure 檔存儲不支援讀取訪問異地冗餘存儲 （RA-GRS） 或讀取訪問異地區域冗餘存儲 （RA-GZRS）。如果將存儲帳戶配置為使用RA-GRS或RA-GZRS，則檔共用將配置為GRS或 GZRS 並計費。</t>
+          <t>配置存儲帳戶以實現冗餘。為了獲得最大可用性和持久性，請使用區域冗餘存儲 （ZRS）、GRS 或 GZRS 配置帳戶。有限的 Azure 區域支援用於標準和高級文件共用的 ZRS。只有標準 SMB 帳戶支援 GRS 和 GZRS。高級SMB共用和NFS共用不支援 GRS 和 GZRS。Azure 檔存儲不支援讀取訪問異地冗餘存儲 （RA-GRS） 或讀取訪問異地區域冗餘存儲 （RA-GZRS）。如果將存儲帳戶配置為使用RA-GRS或RA-GZRS，則檔共用將配置為GRS或 GZRS 並計費。</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>冗餘可保護您的數據免受意外故障的影響。ZRS 和 GZRS 設定選項可在各種可用性區域之間複製，並使應用程式能夠在中斷期間繼續讀取數據。有關詳細資訊，請參閱按中斷方案劃分的持久性和可用性以及持久性和可用性參數。</t>
+          <t>冗餘可保護您的數據免受意外故障的影響。ZRS 和 GZRS 設定選項跨各種可用區進行複製，並使應用程式能夠在中斷期間繼續讀取數據。有關更多資訊，請參閱按中斷場景劃分的持久性和可用性和持久性和可用性參數。</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>在啟動故障轉移或故障回復之前，請檢查“上次同步時間”屬性的值，以評估數據丟失的可能性。此建議僅適用於 GRS 和 GZRS 配置。</t>
+          <t>在啟動故障轉移或故障回復之前，請檢查 last synchronization time 屬性的值以評估數據丟失的可能性。此建議僅適用於 GRS 和 GZRS 配置。</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>此屬性可幫助您估計在啟動帳戶故障轉移時可能丟失的數據量。在上次同步時間之前寫入的所有數據和元數據在次要區域上都可用，但你可能會丟失在上次同步時間之後寫入的數據和元數據，因為它不會寫入次要區域。</t>
+          <t>此屬性可幫助您估計在啟動帳戶故障轉移時可能會丟失的數據量。在上次同步時間之前寫入的所有數據和元數據在次要區域上都可用，但您可能會丟失在上次同步時間之後寫入的數據和元數據，因為它未寫入次要區域。</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>作為備份和恢復策略的一部分，請啟用軟刪除並使用快照進行時間點還原。可以使用 Azure 備份來備份 SMB 文件共用。還可以使用 Azure 檔案同步將本地 SMB 文件共享備份到 Azure 檔共用。 Azure 備份還允許執行 Azure 檔的保管備份（預覽版），以保護數據免受勒索軟體攻擊或由於惡意參與者或流氓管理員而導致的源數據丟失。通過使用保管備份，Azure 備份將數據複製並存儲在恢復服務保管庫中。這將創建數據的異地副本，您可以保留長達 99 年。Azure 備份根據備份策略中定義的計劃和保留期創建和管理恢復點。瞭解更多資訊。</t>
+          <t>作為備份和恢復策略的一部分，請啟用軟刪除並使用快照進行時間點還原。可以使用 Azure 備份來備份 SMB 文件共用。還可以使用 Azure 檔案同步將本地 SMB 文件共享備份到 Azure 檔共用。 Azure 備份還允許對 Azure 檔儲存進行保管備份（預覽版），以保護數據免受勒索軟體攻擊或由於惡意參與者或惡意管理員而導致的源數據丟失。通過使用保管備份，Azure 備份將數據複製並存儲在恢復服務保管庫中。這將創建數據的異地副本，您可以將其保留長達 99 年。Azure 備份根據備份策略中定義的計劃和保留期創建和管理恢復點。瞭解更多資訊。</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>軟刪除在文件共享級別工作，可防止意外刪除 Azure 檔案共用。時間點還原可防止意外刪除或損壞，因為您可以將文件共用還原到早期狀態。有關詳細資訊，請參閱數據保護概述。</t>
+          <t>軟刪除在文件共享級別工作，以保護 Azure 檔共用免遭意外刪除。時間點還原可防止意外刪除或損壞，因為您可以將文件共用還原到較早的狀態。有關更多資訊，請參閱數據保護概述。</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1163,7 +1163,7 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>在存儲帳戶上應用 Azure 資源管理器鎖。</t>
+          <t>對存儲帳戶應用 Azure 資源管理器鎖。</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>打開 TCP 連接埠 445 出站，或為 Azure 外部的用戶端設置 VPN 閘道或 Azure ExpressRoute 連接，以存取檔案共用。</t>
+          <t>打開 TCP 出站埠 445 或設置 VPN 閘道或 Azure ExpressRoute 連接，以便 Azure 外部的用戶端存取檔共用。</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>SMB 3.x 是一種 Internet 安全協定，但您可能無法更改組織或 ISP 策略。可以使用 VPN 閘道或 ExpressRoute 連接作為替代選項。</t>
+          <t>SMB 3.x 是一種 Internet 安全協定，但您可能無法更改組織或 ISP 策略。您可以使用 VPN 閘道或 ExpressRoute 連接作為替代選項。</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1231,7 +1231,7 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>如果打開埠 445，請確保在 Windows 和 Linux 用戶端上禁用 SMBv1。Azure 檔存儲不支援 SMB 1，但你仍應在用戶端上禁用它。</t>
+          <t>如果打開埠 445，請務必在 Windows 和 Linux 用戶端上禁用 SMBv1。Azure 檔存儲不支援 SMB 1，但您仍應在用戶端上禁用它。</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>請考慮禁用對存儲帳戶的公用網路訪問。僅當 Azure 外部的 SMB 用戶端和服務需要存取記憶體帳戶時，才啟用公用網路訪問。如果禁用公用網路訪問，請為存儲帳戶創建專用終結點。專用終結點的標準數據處理費率適用。專用終結點不會阻止與公共終結點的連接。如前所述，您仍應禁用公共網路訪問。如果文件共用不需要靜態 IP 位址，並且想要避免專用終結點的成本，則可以改為限制對特定虛擬網路和 IP 位址的公共終結點訪問。</t>
+          <t>請考慮禁用對存儲帳戶的公用網路訪問。僅當 Azure 外部的 SMB 用戶端和服務需要存取您的儲存帳戶時，才啟用公用網路訪問。如果禁用公用網路訪問，請為存儲帳戶創建專用終結點。私有終端節點的標準數據處理費率適用。私有終端節點不會阻止與公有終端節點的連接。您仍應如前所述禁用公有網路訪問。如果您不需要檔共用的靜態 IP 位址，並且希望避免私有終端節點的成本，則可以將公共終端節點訪問限制為特定的虛擬網路和 IP 位址。</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>網路流量通過 Microsoft 主幹網路（而不是公共 Internet）傳輸，從而消除了公共 Internet 的風險暴露。</t>
+          <t>網路流量通過 Microsoft 主幹網路而不是公共 Internet 傳輸，從而消除了公共 Internet 的風險。</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>啟用防火牆規則，限制對特定虛擬網路的訪問。從零訪問開始，然後有條不紊地逐步提供客戶端和服務所需的最少訪問量。</t>
+          <t>啟用限制訪問特定虛擬網路的防火牆規則。從零訪問開始，然後有條不紊地逐步提供客戶端和服務所需的最少訪問許可權。</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>最大限度地降低為攻擊者創造機會的風險。</t>
+          <t>最大限度地降低為攻擊者創建漏洞的風險。</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>如果可能，請將基於身份的身份驗證與 AES-256 Kerberos 票證加密結合使用，以授權訪問 SMB Azure 文件共用。</t>
+          <t>如果可能，請將基於標識的身份驗證與 AES-256 Kerberos 票證加密結合使用，以授權訪問 SMB Azure 文件共用。</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>使用基於身份的身份驗證可降低攻擊者使用存儲帳戶密鑰訪問檔共用的可能性。</t>
+          <t>使用基於標識的身份驗證可降低攻擊者使用存儲帳戶密鑰訪問檔共用的可能性。</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>如果使用存儲帳戶密鑰，請將其存儲在 Key Vault 中，並確保定期重新生成它們。可以通過從共用的SMB安全設置中刪除NTLMv2來完全禁止儲存帳戶密鑰訪問檔案共用。但是，通常不應從共用的SMB安全設置中刪除NTLMv2，因為管理員仍需要使用帳戶密鑰執行某些任務。</t>
+          <t>如果使用存儲帳戶密鑰，請將其存儲在 Key Vault 中，並確保定期重新生成它們。您可以通過從共用的 SMB 安全設定中刪除 NTLMv2 來完全禁止儲存帳戶密鑰存取檔案共用。但通常不應從共用的SMB安全設置中刪除NTLMv2，因為管理員仍需要將帳戶密鑰用於某些任務。</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 在運行時檢索金鑰，而不是將它們與應用程式一起保存。Key Vault 還使輪換密鑰變得容易，而不會中斷應用程式。定期輪換帳戶密鑰，以降低將數據暴露給惡意攻擊的風險。</t>
+          <t>使用 Key Vault 在運行時檢索金鑰，而不是將它們與應用程式一起保存。Key Vault 還可以輕鬆地輪換密鑰，而不會中斷應用程式。定期輪換帳戶金鑰，以降低數據遭受惡意攻擊的風險。</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>此設置可確保針對存儲帳戶發出的所有請求都通過安全連接 （HTTPS） 進行。通過 HTTP 發出的任何請求都將失敗。</t>
+          <t>此設置可確保對存儲帳戶發出的所有請求都通過安全連接 （HTTPS） 進行。通過 HTTP 發出的任何請求都將失敗。</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1435,7 +1435,7 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>配置存儲帳戶，使TLS 1.2 成為客戶端發送和接收數據的最低版本。</t>
+          <t>配置存儲帳戶，使TLS 1.2是客戶端發送和接收數據的最低版本。</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>僅使用受支援的最新SMB協定版本（當前為3.1.1.1.），並且僅使用AES-256-GCM進行SMB通道加密。Azure 檔公開了一些設置，您可以使用這些設置來切換 SMB 協定並使其更相容或更安全，具體取決於組織的要求。默認情況下，允許使用所有SMB版本。但是，如果啟用“需要安全傳輸”，則不允許使用SMB 2.1，因為SMB 2.1不支援對傳輸中的數據進行加密。如果將這些設置限制為高安全級別，則某些用戶端可能無法連接到文件共用。</t>
+          <t>僅使用最新支援的SMB協定版本（當前為3.1.1.1.），並且僅使用AES-256-GCM進行SMB通道加密。Azure 檔存儲公開了可用於切換 SMB 協定並使其更相容或更安全的設置，具體取決於組織的要求。默認情況下，允許所有SMB版本。但是，如果啟用需要安全傳輸，則不允許使用SMB 2.1，因為SMB 2.1不支援對傳輸中的數據進行加密。如果將這些設置限制為高級別的安全性，則某些用戶端可能無法連接到文件共用。</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>SMB 3.1.1 隨 Windows 10 一起發佈，其中包含重要的安全和性能更新。AES-256-GCM 提供更安全的通道加密。</t>
+          <t>隨 Windows 10 發佈的 SMB 3.1.1 包含重要的安全和性能更新。AES-256-GCM 提供更安全的通道加密。</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1503,7 +1503,7 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>在存儲帳戶上應用資源管理器鎖。</t>
+          <t>對存儲帳戶應用 Resource Manager 鎖。</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>您必須在要將 NFS 共用裝載到的用戶端上打開埠 2049。</t>
+          <t>您必須在要將 NFS 共用掛載到的用戶端上打開埠 2049。</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>打開埠 2049，讓用戶端與 NFS Azure 檔共用通信。</t>
+          <t>打開埠 2049 以允許用戶端與 NFS Azure 檔案共用通信。</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>NFS Azure 檔共用只能通過受限網路訪問。因此，必須為存儲帳戶創建專用終結點，或限制對所選虛擬網路和IP位址的公共終結點訪問。建議創建專用終結點。必須為 NFS 共用配置網路級安全性，因為 Azure 檔案存儲不支援使用 NFS 協定進行傳輸中的加密。需要在存儲帳戶上禁用“需要安全傳輸”設置才能使用 NFS Azure 檔共用。標準數據處理費率適用於專用終結點。如果文件共用不需要靜態 IP 位址，並且想要避免專用終結點的成本，則可以改為限制公共終結點訪問。</t>
+          <t>NFS Azure 檔共用只能通過受限網路訪問。因此，您必須為儲存帳戶創建專用終端節點，或限制對所選虛擬網路和IP位址的公共終端節點訪問。我們建議您創建私有終端節點。必須為 NFS 共用配置網路級安全性，因為 Azure 檔案存儲不支援使用 NFS 協定進行傳輸中加密。您需要在儲存帳戶上禁用 Require secure transfer （需要安全傳輸） 設置才能使用 NFS Azure 文件共用。標準數據處理費率適用於私有終端節點。如果您不需要檔共用的靜態 IP 位址，並且希望避免私有終端節點的成本，則可以改為限制公有終端節點訪問。</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>網路流量通過 Microsoft 主幹網路（而不是公共 Internet）傳輸，從而消除了公共 Internet 的風險暴露。</t>
+          <t>網路流量通過 Microsoft 主幹網路而不是公共 Internet 傳輸，從而消除了公共 Internet 的風險。</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1605,7 +1605,7 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>請考慮在儲存帳戶級別禁止存儲帳戶密鑰訪問。您不需要此存取權限即可載入 NFS 檔案共用。但請記住，對文件共用的完全管理控制（包括獲取檔擁有權的能力）需要使用存儲帳戶密鑰。</t>
+          <t>請考慮在儲存帳戶級別禁止訪問存儲帳戶金鑰。您不需要此存取權限即可掛載 NFS 檔案共用。但請記住，對文件共用的完全管理控制（包括獲取檔擁有權的能力）需要使用存儲帳戶密鑰。</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>遷移到標準 Azure 檔共享時，建議在初始遷移期間從事務優化層開始。遷移期間的事務使用方式通常並不表示正常的事務使用方式。此注意事項不適用於高級文件共享，因為預配的計費模型不對事務收費。</t>
+          <t>遷移到標準 Azure 檔共享時，建議在初始遷移期間從事務優化層開始。遷移期間的事務使用方式通常不表示正常的事務使用方式。此注意事項不適用於高級文件共享，因為預置計費模型不對事務收費。</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>遷移到 Azure 檔存儲是一種臨時的事務繁重工作負載。優化高事務工作負載的價格，以説明降低遷移成本。</t>
+          <t>遷移到 Azure 檔儲存是一項臨時的、事務繁重的工作負載。優化高事務工作負載的價格，以説明降低遷移成本。</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>遷移工作負載后，如果使用標準文件共用，請仔細為文件共享選擇最具成本效益的訪問層：熱訪問層、冷訪問層或事務優化訪問層。在正常使用幾天或幾周後，您可以在定價計算機中插入交易計數，以確定哪個層最適合您的工作負載。大多數客戶應該選擇酷，即使他們積極使用共用。但是，您應該檢查每個共用，並將儲存容量與事務的餘額進行比較，以確定您的層。如果事務成本在帳單中佔很大比例，則使用冷訪問層所節省的成本通常會抵消此成本，並最大程度地降低總成本。我們建議您僅在必要時才在訪問層之間移動標準文件共用，以針對工作負載模式的變化進行優化。每次移動都會產生事務。有關詳細資訊，請參閱在標準層之間切換。</t>
+          <t>遷移工作負載后，如果您使用標準文件共用，請仔細為文件共享選擇最具成本效益的訪問層：熱、冷或事務優化。在正常使用的情況下運行幾天或幾周後，您可以在定價計算機中插入事務計數，以確定哪個層最適合您的工作負載。大多數客戶即使主動使用共用，也應該選擇cool。但是，您應該檢查每個份額，並將存儲容量的餘額與事務進行比較，以確定您的層。如果交易成本占帳單的很大一部分，則使用 Cool Access 層節省的費用通常會抵消此成本並最大限度地降低總總成本。我們建議您僅在必要時在訪問層之間移動標準文件共用，以優化工作負載模式的變化。每次移動都會產生事務。有關更多資訊，請參閱在標準層之間切換。</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>為標準文件共享選擇適當的訪問層，以大大降低成本。</t>
+          <t>為標準檔共享選擇適當的訪問層，以顯著降低您的成本。</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>如果使用高級共用，請確保為工作負載預置足夠的容量和性能，但不要過多，以免產生不必要的成本。我們建議將預留空間超額增加 2 到 3 倍。您可以根據儲存和輸入/輸出 （IO） 性能特徵動態擴展或縮減高級檔案共用。</t>
+          <t>如果您使用高級共用，請確保為工作負載預置足夠的容量和性能，但不要過多，以免產生不必要的成本。我們建議過度預置 2 到 3 倍。您可以根據儲存和輸入/輸出 （IO） 性能特徵動態擴展或縮減高級檔案共用。</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>按合理的數量超額預置高級文件共用，以説明保持性能並考慮未來的增長和性能要求。</t>
+          <t>以合理的數量過度預置高級文件共用，以説明保持性能並滿足未來的增長和性能要求。</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 檔存儲預留（也稱為預留實例）預先承諾存儲使用方式並獲得折扣。對生產工作負載或具有一致佔用空間的開發/測試工作負載使用預留。有關詳細資訊，請參閱使用存儲預留優化成本。預留不包括事務、頻寬、數據傳輸和元數據存儲費用。</t>
+          <t>使用 Azure 檔存儲預留（也稱為預留實例）預先承諾存儲使用方式並獲得折扣。對生產工作負載或具有一致佔用空間的開發/測試工作負載使用預留。有關更多資訊，請參閱使用存儲預留優化成本。預留不包括事務、頻寬、數據傳輸和元數據存儲費用。</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>三年期預留可以提供高達 36% 的文件存儲總成本折扣。預留不會影響性能。</t>
+          <t>三年預留可提供高達 36% 的文件存儲總成本折扣。預留不會影響性能。</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>監控快照使用方式。快照會產生費用，但會根據每個快照的差異存儲使用方式進行計費。您只需為每個快照中的差額付費。有關更多資訊，請參閱快照。Azure 檔同步將共用級和檔級快照作為常規使用的一部分，這可能會增加 Azure 檔存儲總帳單。</t>
+          <t>監控快照使用方式。快照會產生費用，但根據每個快照的差異存儲使用方式計費。您只需為每個快照中的差額付費。有關更多資訊，請參閱快照。Azure 檔同步在常規使用過程中拍攝共用級和檔級快照，這可能會增加 Azure 檔存儲的總費用。</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>差異快照可確保您不會因存儲相同的數據而多次付費。但是，仍應監視快照使用方式，以幫助減少 Azure 檔存儲帳單。</t>
+          <t>差異快照可確保您不會因存儲相同數據而多次付費。但是，您仍應監控快照使用方式，以幫助減少 Azure 檔存儲費用。</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>設置軟刪除功能的保留期，尤其是在您首次開始使用它時。請考慮從較短的保留期開始，以更好地瞭解該功能如何影響您的帳單。建議的最短保留期為 7 天。軟刪除標準檔共享和高級文件共享時，它們按已用容量計費，而不是按預配容量計費。高級文件共用在軟刪除狀態下按快照費率計費。在軟刪除狀態下，標準文件共用按正常費率計費。</t>
+          <t>設置軟刪除功能的保留期，尤其是在您首次開始使用它時。請考慮從較短的保留期開始，以更好地瞭解該功能如何影響您的帳單。建議的最短保留期為 7 天。軟刪除標準和高級文件共享時，它們將按已用容量而不是預置容量計費。高級文件共用在軟刪除狀態下按快照費率計費。標準文件共用在軟刪除狀態下按正常費率計費。</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>設置保留期，以便軟刪除的檔不會堆積起來並增加容量成本。在配置的保留期之後，永久刪除的數據不會產生費用。</t>
+          <t>設置保留期，以便軟刪除的檔不會堆積並增加容量成本。在配置的保留期之後，永久刪除的數據不會產生費用。</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>使用存儲見解跟蹤存儲帳戶的運行狀況和性能。存儲見解提供所有存儲帳戶的故障、性能、可用性和容量的統一視圖。</t>
+          <t>使用 Storage Insights 追蹤存儲帳戶的運行狀況和性能。Storage Insights 提供所有存儲帳戶的故障、性能、可用性和容量的統一視圖。</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>您可以追蹤每個帳戶的運行狀況和操作。輕鬆創建儀錶板和報告，利益幹系人可以使用這些儀錶板和報告來跟蹤存儲帳戶的運行狀況。</t>
+          <t>您可以追蹤每個帳戶的運行狀況和操作。輕鬆創建利益相關者可用於跟蹤存儲帳戶運行狀況的儀錶板和報告。</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>使用「監視器」分析可用性、延遲和使用方式等指標，並創建警報。</t>
+          <t>使用 Monitor 分析可用性、延遲和使用方式等指標，並創建警報。</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Monitor 提供文件共用的可用性、性能和復原能力的視圖。</t>
+          <t>Monitor 提供文件共用的可用性、性能和彈性視圖。</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1940,12 +1940,12 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>為高級SMB檔共享啟用SMB多通道。SMB 多通道允許SMB 3.1.1用戶端建立到SMB Azure檔共用的多個網路連接。僅當在用戶端（用戶端）和服務端 （Azure） 上都啟用該功能時，SMB 多通道才有效。在 Windows 用戶端上，SMB 多通道預設處於啟用狀態，但你需要在存儲帳戶上啟用它。</t>
+          <t>為高級SMB檔共享啟用SMB多通道。SMB 多通道允許SMB 3.1.1用戶端與SMB Azure檔案共用建立多個網路連接。SMB 多通道僅在用戶端 （用戶端） 和服務端 （Azure） 上都啟用了該功能時才有效。在 Windows 用戶端上，SMB 多通道預設處於啟用狀態，但您需要在存儲帳戶上啟用它。</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>提高輸送量和 IOPS，同時降低總擁有成本。性能優勢隨著分配負載的文件數量的增加而增加。</t>
+          <t>提高輸送量和 IOPS，同時降低總擁有成本。性能優勢隨著分配負載的檔數的增加而增加。</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1974,7 +1974,7 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>在 Linux 用戶端上將 nconnect 用戶端裝載選項與 NFS Azure 檔共用一起使用。Nconnect 使你能夠在用戶端和適用於 NFSv4.1 的 Azure 檔案存儲高級服務之間使用更多 TCP 連接。</t>
+          <t>將 nconnect 用戶端掛載選項用於 Linux 用戶端上的 NFS Azure 檔共用。使用 Nconnect，可以在用戶端與適用於 NFSv4.1 的 Azure 檔案存儲高級服務之間使用更多 TCP 連接。</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
@@ -2008,12 +2008,12 @@
       <c r="B36" s="21" t="n"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>請確保檔共用或存儲帳戶未受到限制，這可能會導致高延遲、低輸送量或低 IOPS。當達到 IOPS、入口或出口限制時，請求將受到限制。對於標準存儲帳戶，限制發生在帳戶級別。對於高級文件共用，限制通常發生在共享級別。</t>
+          <t>確保您的檔共享或存儲帳戶未受到限制，這可能會導致高延遲、低輸送量或低 IOPS。當達到 IOPS、入口或出口限制時，請求會受到限制。對於標準存儲帳戶，限制發生在帳戶級別。對於高級文件共用，限制通常發生在共享級別。</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>避免限制，以提供最佳的客戶端體驗。</t>
+          <t>避免限制以提供最佳的客戶端體驗。</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>此檢查尚未查看</t>
+          <t>尚未查看此檢查</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>存在與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，並且沒有與之關聯的其他操作項</t>
+          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -6457,7 +6457,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>不適用</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
